--- a/마켓 레이아웃 1010.xlsx
+++ b/마켓 레이아웃 1010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="7995" tabRatio="909" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20415" windowHeight="7995" tabRatio="909" firstSheet="3" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="메인이미지" sheetId="28" r:id="rId1"/>
@@ -6033,6 +6033,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6045,11 +6051,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6060,19 +6066,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6082,6 +6076,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8402,8 +8402,8 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="795" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
+      <pane ySplit="795" topLeftCell="A22" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10593,8 +10593,8 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11388,7 +11388,7 @@
   </sheetPr>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D10" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -12782,22 +12782,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C11:J11"/>
     <mergeCell ref="Q1:R2"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
@@ -12810,6 +12794,22 @@
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13123,213 +13123,213 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="146" t="s">
+      <c r="C7" s="145"/>
+      <c r="D7" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146" t="s">
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146" t="s">
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="Q7" s="146"/>
+      <c r="Q7" s="142"/>
       <c r="R7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="146" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="147">
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="143">
         <v>3000</v>
       </c>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146">
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="142">
         <v>1</v>
       </c>
-      <c r="Q8" s="146"/>
+      <c r="Q8" s="142"/>
       <c r="R8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="146" t="s">
+      <c r="C9" s="145"/>
+      <c r="D9" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146" t="s">
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146" t="s">
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="Q9" s="146"/>
+      <c r="Q9" s="142"/>
       <c r="R9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="144"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="146" t="s">
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="147">
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="143">
         <v>3000</v>
       </c>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146">
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="142">
         <v>1</v>
       </c>
-      <c r="Q10" s="146"/>
+      <c r="Q10" s="142"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="145"/>
+      <c r="D11" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146" t="s">
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146" t="s">
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="Q11" s="146"/>
+      <c r="Q11" s="142"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="144"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="146" t="s">
+      <c r="B12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="147">
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="143">
         <v>3000</v>
       </c>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146">
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="142">
         <v>1</v>
       </c>
-      <c r="Q12" s="146"/>
+      <c r="Q12" s="142"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="146" t="s">
+      <c r="C13" s="145"/>
+      <c r="D13" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146" t="s">
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146" t="s">
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="Q13" s="146"/>
+      <c r="Q13" s="142"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="147">
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="143">
         <v>3000</v>
       </c>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146">
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142">
         <v>1</v>
       </c>
-      <c r="Q14" s="146"/>
+      <c r="Q14" s="142"/>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" t="s">
@@ -13337,104 +13337,104 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="146" t="s">
+      <c r="C16" s="145"/>
+      <c r="D16" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146" t="s">
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="146" t="s">
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="Q16" s="146"/>
+      <c r="Q16" s="142"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="144"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146" t="s">
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147">
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="143">
         <v>3000</v>
       </c>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146" t="s">
+      <c r="N17" s="142"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="Q17" s="146"/>
+      <c r="Q17" s="142"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="146" t="s">
+      <c r="C18" s="145"/>
+      <c r="D18" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146" t="s">
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146" t="s">
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="146"/>
+      <c r="Q18" s="142"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="144"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146" t="s">
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147">
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="143">
         <v>3000</v>
       </c>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146">
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142">
         <v>1</v>
       </c>
-      <c r="Q19" s="146"/>
+      <c r="Q19" s="142"/>
     </row>
     <row r="22" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="23" spans="2:18" ht="18.75">
@@ -13461,6 +13461,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:O10"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="D7:L7"/>
@@ -13477,33 +13504,6 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="M12:O12"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B11:C12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13615,30 +13615,30 @@
       <c r="C6" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="151" t="s">
+      <c r="D6" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="151"/>
-      <c r="F6" s="148" t="s">
+      <c r="E6" s="148"/>
+      <c r="F6" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="151" t="s">
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="151"/>
-      <c r="N6" s="152" t="s">
+      <c r="M6" s="148"/>
+      <c r="N6" s="149" t="s">
         <v>158</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152" t="s">
+      <c r="O6" s="149"/>
+      <c r="P6" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="152"/>
+      <c r="Q6" s="149"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="92">
@@ -13647,146 +13647,146 @@
       <c r="C7" s="107">
         <v>50</v>
       </c>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="92"/>
       <c r="C8" s="101"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="92"/>
       <c r="C9" s="101"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="92"/>
       <c r="C10" s="101"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="92"/>
       <c r="C11" s="101"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="92"/>
       <c r="C12" s="101"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="92"/>
       <c r="C13" s="101"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="92"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
     </row>
     <row r="18" spans="16:19" ht="17.25" thickBot="1"/>
     <row r="19" spans="16:19" ht="18.75">
@@ -13813,22 +13813,20 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:Q14"/>
@@ -13845,20 +13843,22 @@
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13973,18 +13973,18 @@
       <c r="C6" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="151" t="s">
+      <c r="D6" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151" t="s">
+      <c r="E6" s="148"/>
+      <c r="F6" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151" t="s">
+      <c r="G6" s="148"/>
+      <c r="H6" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="151"/>
+      <c r="I6" s="148"/>
       <c r="J6" s="103" t="s">
         <v>129</v>
       </c>
@@ -13997,14 +13997,14 @@
       <c r="M6" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="152" t="s">
+      <c r="N6" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152" t="s">
+      <c r="O6" s="149"/>
+      <c r="P6" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="Q6" s="152"/>
+      <c r="Q6" s="149"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="92">
@@ -14013,18 +14013,18 @@
       <c r="C7" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="151" t="s">
+      <c r="D7" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151" t="s">
+      <c r="E7" s="148"/>
+      <c r="F7" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="151"/>
+      <c r="G7" s="148"/>
       <c r="H7" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="151"/>
+      <c r="I7" s="148"/>
       <c r="J7" s="101" t="s">
         <v>139</v>
       </c>
@@ -14037,140 +14037,140 @@
       <c r="M7" s="101">
         <v>2</v>
       </c>
-      <c r="N7" s="151" t="s">
+      <c r="N7" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151" t="s">
+      <c r="O7" s="148"/>
+      <c r="P7" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="151"/>
+      <c r="Q7" s="148"/>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="92"/>
       <c r="C8" s="101"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
       <c r="L8" s="101"/>
       <c r="M8" s="101"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="92"/>
       <c r="C9" s="101"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
       <c r="J9" s="101"/>
       <c r="K9" s="101"/>
       <c r="L9" s="101"/>
       <c r="M9" s="101"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="92"/>
       <c r="C10" s="101"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
       <c r="J10" s="101"/>
       <c r="K10" s="101"/>
       <c r="L10" s="101"/>
       <c r="M10" s="101"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="92"/>
       <c r="C11" s="101"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
       <c r="L11" s="101"/>
       <c r="M11" s="101"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="92"/>
       <c r="C12" s="101"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
       <c r="J12" s="101"/>
       <c r="K12" s="101"/>
       <c r="L12" s="101"/>
       <c r="M12" s="101"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="92"/>
       <c r="C13" s="101"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
       <c r="J13" s="101"/>
       <c r="K13" s="101"/>
       <c r="L13" s="101"/>
       <c r="M13" s="101"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="92"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
       <c r="J14" s="101"/>
       <c r="K14" s="101"/>
       <c r="L14" s="101"/>
       <c r="M14" s="101"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
     </row>
     <row r="16" spans="1:18" ht="17.25" thickBot="1"/>
     <row r="17" spans="17:20" ht="18.75">
@@ -14197,36 +14197,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="Q1:R2"/>
     <mergeCell ref="D14:E14"/>
@@ -14243,6 +14213,36 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -14362,32 +14362,32 @@
       <c r="C6" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="156"/>
       <c r="J6" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="154" t="s">
+      <c r="K6" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="L6" s="155"/>
+      <c r="L6" s="158"/>
       <c r="M6" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="N6" s="152" t="s">
+      <c r="N6" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152" t="s">
+      <c r="O6" s="149"/>
+      <c r="P6" s="149" t="s">
         <v>272</v>
       </c>
-      <c r="Q6" s="152"/>
+      <c r="Q6" s="149"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
@@ -14399,32 +14399,32 @@
       <c r="C7" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="154" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="158"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="156"/>
       <c r="J7" s="106">
         <v>5500</v>
       </c>
-      <c r="K7" s="154" t="s">
+      <c r="K7" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="155"/>
+      <c r="L7" s="158"/>
       <c r="M7" s="98">
         <v>2</v>
       </c>
-      <c r="N7" s="151" t="s">
+      <c r="N7" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151" t="s">
+      <c r="O7" s="148"/>
+      <c r="P7" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="Q7" s="151"/>
+      <c r="Q7" s="148"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
@@ -14436,20 +14436,20 @@
       <c r="C8" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="158"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="156"/>
       <c r="J8" s="101"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="155"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="158"/>
       <c r="M8" s="101"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
@@ -14457,20 +14457,20 @@
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="101"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="158"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="156"/>
       <c r="J9" s="101"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="155"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
       <c r="M9" s="101"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
@@ -14478,20 +14478,20 @@
       </c>
       <c r="B10" s="92"/>
       <c r="C10" s="101"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="158"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="156"/>
       <c r="J10" s="101"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="155"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="158"/>
       <c r="M10" s="101"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
@@ -14499,20 +14499,20 @@
       </c>
       <c r="B11" s="92"/>
       <c r="C11" s="101"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="158"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="156"/>
       <c r="J11" s="101"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="155"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="158"/>
       <c r="M11" s="101"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
@@ -14520,20 +14520,20 @@
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="101"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="158"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="156"/>
       <c r="J12" s="101"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="155"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="158"/>
       <c r="M12" s="101"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
@@ -14541,20 +14541,20 @@
       </c>
       <c r="B13" s="92"/>
       <c r="C13" s="101"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="158"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="156"/>
       <c r="J13" s="101"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="155"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="158"/>
       <c r="M13" s="101"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
@@ -14562,20 +14562,20 @@
       </c>
       <c r="B14" s="92"/>
       <c r="C14" s="101"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="158"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="156"/>
       <c r="J14" s="101"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="155"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="158"/>
       <c r="M14" s="101"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
     </row>
     <row r="16" spans="1:18">
       <c r="P16" t="s">
@@ -14610,27 +14610,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
@@ -14647,6 +14626,27 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15624,8 +15624,8 @@
   </sheetPr>
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
